--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——徐义金.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——徐义金.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\android\mobile\【存档】成果物\02_项目管理\05_项目日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kengdie\BusComing\Doc\BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩\02_项目管理\05_项目日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="个人日报7.4-7.8" sheetId="2" r:id="rId2"/>
     <sheet name="个人日报7.11-7.15" sheetId="3" r:id="rId3"/>
+    <sheet name="个人日报7.18-7.22" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +229,66 @@
   </si>
   <si>
     <t>安桌基础及界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘查询编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘查询编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换乘查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +438,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,9 +463,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +485,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,26 +850,26 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
@@ -834,14 +901,14 @@
       <c r="C4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>42558</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="2"/>
@@ -850,22 +917,38 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42566</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42573</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
   </sheetData>
@@ -898,101 +981,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1013,12 +1096,12 @@
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="5">
@@ -1031,12 +1114,12 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0.8</v>
       </c>
       <c r="G10" s="5">
@@ -1053,12 +1136,12 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
       <c r="G11" s="7">
@@ -1071,12 +1154,12 @@
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.8</v>
       </c>
       <c r="G12" s="7">
@@ -1093,12 +1176,12 @@
       <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
       <c r="G13" s="7">
@@ -1108,25 +1191,25 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1147,12 +1230,12 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1165,12 +1248,12 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1183,12 +1266,12 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1201,12 +1284,12 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1219,10 +1302,10 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1270,121 +1353,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="24">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1392,49 +1475,55 @@
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>8</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.8</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>7</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
@@ -1442,11 +1531,19 @@
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
@@ -1454,47 +1551,53 @@
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="24">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1502,12 +1605,12 @@
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1516,12 +1619,12 @@
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1530,12 +1633,12 @@
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1544,12 +1647,12 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1558,10 +1661,10 @@
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1578,11 +1681,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
@@ -1592,6 +1690,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
@@ -1602,4 +1705,361 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="27">
+      <c r="A2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="24">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="24">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>